--- a/excels/abilities/special.xlsx
+++ b/excels/abilities/special.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>名字</t>
   </si>
@@ -138,6 +138,9 @@
     <t>AbilityCastRange</t>
   </si>
   <si>
+    <t>AbilityCastPoint</t>
+  </si>
+  <si>
     <t>BaseClass</t>
   </si>
   <si>
@@ -166,6 +169,18 @@
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_PASSIVE | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE | DOTA_ABILITY_BEHAVIOR_HIDDEN</t>
+  </si>
+  <si>
+    <t>special_indicator_sector</t>
+  </si>
+  <si>
+    <t>技能指示器-扇形</t>
+  </si>
+  <si>
+    <t>abilities/special/special_indicator_sector</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE | DOTA_ABILITY_BEHAVIOR_NO_TARGET</t>
   </si>
 </sst>
 </file>
@@ -564,7 +579,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -638,15 +653,6 @@
       <right style="medium">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -835,7 +841,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -847,34 +853,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -960,7 +966,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1003,58 +1009,52 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1217,7 +1217,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{340DADB1-4F07-47C4-A4CA-1F3A0D4AC43B}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{E7F26EF0-C2D4-4F25-B284-D618398CE264}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="secondRowStripe" dxfId="4"/>
@@ -1518,12 +1518,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB16"/>
+  <dimension ref="A1:AC15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1548,13 +1548,13 @@
     <col min="21" max="21" width="5.675" customWidth="1"/>
     <col min="22" max="22" width="9.34166666666667" customWidth="1"/>
     <col min="23" max="23" width="15.5083333333333" customWidth="1"/>
-    <col min="24" max="24" width="16.0083333333333" customWidth="1"/>
-    <col min="25" max="25" width="16.3416666666667" customWidth="1"/>
-    <col min="26" max="26" width="37" customWidth="1"/>
-    <col min="27" max="27" width="50.125" customWidth="1"/>
+    <col min="24" max="25" width="16.0083333333333" customWidth="1"/>
+    <col min="26" max="26" width="16.3416666666667" customWidth="1"/>
+    <col min="27" max="27" width="37" customWidth="1"/>
+    <col min="28" max="28" width="50.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="1" s="1" customFormat="1" ht="35" customHeight="1" spans="1:29">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="5"/>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="5" t="s">
@@ -1601,24 +1601,25 @@
       <c r="V1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="31"/>
+      <c r="AC1" s="27"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:27">
+    <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:28">
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
@@ -1649,7 +1650,7 @@
       <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="24" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="8" t="s">
@@ -1658,55 +1659,58 @@
       <c r="M2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="28">
+      <c r="N2" s="24">
         <v>1</v>
       </c>
-      <c r="O2" s="28">
+      <c r="O2" s="24">
         <v>2</v>
       </c>
-      <c r="P2" s="28">
+      <c r="P2" s="24">
         <v>3</v>
       </c>
-      <c r="Q2" s="28">
+      <c r="Q2" s="24">
         <v>4</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="R2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="T2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="30" t="s">
+      <c r="U2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="30" t="s">
+      <c r="V2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="28" t="s">
+      <c r="W2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="28" t="s">
+      <c r="X2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="24" t="s">
         <v>36</v>
       </c>
       <c r="Z2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="7" t="s">
         <v>38</v>
       </c>
+      <c r="AB2" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" ht="51.5" customHeight="1" spans="1:27">
+    <row r="3" ht="51.5" customHeight="1" spans="1:28">
       <c r="A3" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
@@ -1729,12 +1733,12 @@
       <c r="K3" s="12">
         <v>0</v>
       </c>
-      <c r="L3" s="21" t="s">
-        <v>41</v>
+      <c r="L3" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="M3" s="12"/>
       <c r="N3" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
@@ -1750,78 +1754,113 @@
       <c r="X3" s="12">
         <v>0</v>
       </c>
-      <c r="Y3" s="14" t="s">
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB3" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" ht="51.5" customHeight="1" spans="1:28">
+      <c r="A4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>1</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="Z3" s="14" t="s">
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12">
+        <v>0</v>
+      </c>
+      <c r="X4" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="28">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AA3" s="21" t="s">
-        <v>45</v>
+      <c r="AA4" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB4" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="4" ht="51.5" customHeight="1" spans="1:27">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="15"/>
+    <row r="5" ht="51.5" customHeight="1" spans="1:28">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="15"/>
     </row>
-    <row r="5" ht="51.5" customHeight="1" spans="1:27">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="19"/>
-    </row>
-    <row r="6" ht="68" customHeight="1" spans="1:27">
+    <row r="6" ht="68" customHeight="1" spans="1:28">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="21"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -1830,7 +1869,7 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-      <c r="L6" s="21"/>
+      <c r="L6" s="17"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -1843,40 +1882,42 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
-      <c r="Y6" s="10"/>
+      <c r="Y6" s="12"/>
       <c r="Z6" s="10"/>
-      <c r="AA6" s="21"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="17"/>
     </row>
-    <row r="7" ht="51.5" customHeight="1" spans="1:27">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+    <row r="7" ht="51.5" customHeight="1" spans="1:28">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="12"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="19"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="15"/>
     </row>
-    <row r="8" ht="51.5" customHeight="1" spans="1:27">
+    <row r="8" ht="51.5" customHeight="1" spans="1:28">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -1888,7 +1929,7 @@
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="21"/>
+      <c r="L8" s="17"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
@@ -1901,40 +1942,42 @@
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="21"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="17"/>
     </row>
-    <row r="9" ht="51.5" customHeight="1" spans="1:27">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+    <row r="9" ht="51.5" customHeight="1" spans="1:28">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="19"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="15"/>
     </row>
-    <row r="10" ht="51.5" customHeight="1" spans="1:27">
+    <row r="10" ht="51.5" customHeight="1" spans="1:28">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
@@ -1946,7 +1989,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
-      <c r="L10" s="21"/>
+      <c r="L10" s="17"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -1959,40 +2002,42 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="21"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="17"/>
     </row>
-    <row r="11" ht="51.5" customHeight="1" spans="1:27">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+    <row r="11" ht="51.5" customHeight="1" spans="1:28">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="19"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="15"/>
     </row>
-    <row r="12" ht="51.5" customHeight="1" spans="1:27">
+    <row r="12" ht="51.5" customHeight="1" spans="1:28">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
@@ -2004,7 +2049,7 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="21"/>
+      <c r="L12" s="17"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
@@ -2017,98 +2062,101 @@
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="21"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="17"/>
     </row>
-    <row r="13" ht="51.5" customHeight="1" spans="1:27">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+    <row r="13" ht="51.5" customHeight="1" spans="1:28">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="29"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="25"/>
     </row>
-    <row r="14" ht="51.5" customHeight="1" spans="1:27">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+    <row r="14" ht="51.5" customHeight="1" spans="1:28">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="29"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="25"/>
     </row>
-    <row r="15" ht="51.5" customHeight="1" spans="1:27">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
+    <row r="15" ht="51.5" customHeight="1" spans="1:28">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="29"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="25"/>
     </row>
-    <row r="16" ht="14.25"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A2">
     <cfRule type="containsText" dxfId="0" priority="4" operator="between" text="arms_t4">
